--- a/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="44">
   <si>
     <t>MYS</t>
   </si>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,13 +533,16 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>1999</v>
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>7.6033116999999999</v>
       </c>
       <c r="E2">
-        <v>78.931707317073176</v>
+        <v>79.234146341463429</v>
       </c>
       <c r="F2">
-        <v>18926000</v>
+        <v>19153000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,16 +553,16 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D3">
-        <v>7.6033116999999999</v>
+        <v>7.69647945</v>
       </c>
       <c r="E3">
-        <v>79.234146341463429</v>
+        <v>79.634146341463421</v>
       </c>
       <c r="F3">
-        <v>19153000</v>
+        <v>19413000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,16 +573,16 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D4">
-        <v>7.69647945</v>
+        <v>7.8871401399999996</v>
       </c>
       <c r="E4">
-        <v>79.634146341463421</v>
+        <v>79.936585365853674</v>
       </c>
       <c r="F4">
-        <v>19413000</v>
+        <v>19651400</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,16 +593,16 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D5">
-        <v>7.8871401399999996</v>
+        <v>7.8936809600000002</v>
       </c>
       <c r="E5">
-        <v>79.936585365853674</v>
+        <v>80.239024390243912</v>
       </c>
       <c r="F5">
-        <v>19651400</v>
+        <v>19895400</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,16 +613,16 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D6">
-        <v>7.8936809600000002</v>
+        <v>8.1053256000000005</v>
       </c>
       <c r="E6">
-        <v>80.239024390243912</v>
+        <v>80.490243902439033</v>
       </c>
       <c r="F6">
-        <v>19895400</v>
+        <v>20127400</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,16 +633,16 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D7">
-        <v>8.1053256000000005</v>
+        <v>7.9738586900000001</v>
       </c>
       <c r="E7">
-        <v>80.490243902439033</v>
+        <v>80.841463414634148</v>
       </c>
       <c r="F7">
-        <v>20127400</v>
+        <v>20394800</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,16 +653,16 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D8">
-        <v>7.9738586900000001</v>
+        <v>7.9832171000000001</v>
       </c>
       <c r="E8">
-        <v>80.841463414634148</v>
+        <v>81.041463414634151</v>
       </c>
       <c r="F8">
-        <v>20394800</v>
+        <v>20697900</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,16 +673,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D9">
-        <v>7.9832171000000001</v>
+        <v>8.0573166599999997</v>
       </c>
       <c r="E9">
-        <v>81.041463414634151</v>
+        <v>81.292682926829272</v>
       </c>
       <c r="F9">
-        <v>20697900</v>
+        <v>20827600</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,16 +693,16 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D10">
-        <v>8.0573166599999997</v>
+        <v>8.2615258699999998</v>
       </c>
       <c r="E10">
-        <v>81.292682926829272</v>
+        <v>81.395121951219522</v>
       </c>
       <c r="F10">
-        <v>20827600</v>
+        <v>21249200</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,16 +713,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D11">
-        <v>8.2615258699999998</v>
+        <v>8.5876016199999992</v>
       </c>
       <c r="E11">
-        <v>81.395121951219522</v>
+        <v>81.543902439024407</v>
       </c>
       <c r="F11">
-        <v>21249200</v>
+        <v>21691700</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,16 +733,16 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D12">
-        <v>8.5876016199999992</v>
+        <v>8.4677824400000006</v>
       </c>
       <c r="E12">
-        <v>81.543902439024407</v>
+        <v>81.695121951219534</v>
       </c>
       <c r="F12">
-        <v>21691700</v>
+        <v>22031750</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,16 +753,16 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D13">
-        <v>8.4677824400000006</v>
+        <v>8.5857244700000006</v>
       </c>
       <c r="E13">
-        <v>81.695121951219534</v>
+        <v>81.895121951219508</v>
       </c>
       <c r="F13">
-        <v>22031750</v>
+        <v>22340024</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,16 +773,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D14">
-        <v>8.5857244700000006</v>
+        <v>8.7255020400000003</v>
       </c>
       <c r="E14">
-        <v>81.895121951219508</v>
+        <v>82.046341463414635</v>
       </c>
       <c r="F14">
-        <v>22340024</v>
+        <v>22742475</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,16 +793,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D15">
-        <v>8.7255020400000003</v>
+        <v>8.8058435500000005</v>
       </c>
       <c r="E15">
-        <v>82.046341463414635</v>
+        <v>82.148780487804885</v>
       </c>
       <c r="F15">
-        <v>22742475</v>
+        <v>23145901</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,16 +813,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D16">
-        <v>8.8058435500000005</v>
+        <v>9.0792499899999992</v>
       </c>
       <c r="E16">
-        <v>82.148780487804885</v>
+        <v>82.300000000000011</v>
       </c>
       <c r="F16">
-        <v>23145901</v>
+        <v>23504138</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,36 +833,36 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D17">
-        <v>9.0792499899999992</v>
+        <v>9.4453332700000008</v>
       </c>
       <c r="E17">
-        <v>82.300000000000011</v>
+        <v>82.40000000000002</v>
       </c>
       <c r="F17">
-        <v>23504138</v>
+        <v>23850784</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D18">
-        <v>9.4453332700000008</v>
+        <v>2.0053990700000002</v>
       </c>
       <c r="E18">
-        <v>82.40000000000002</v>
+        <v>66.284999999999997</v>
       </c>
       <c r="F18">
-        <v>23850784</v>
+        <v>211540429</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,16 +873,16 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D19">
-        <v>2.0053990700000002</v>
+        <v>2.2357026100000001</v>
       </c>
       <c r="E19">
-        <v>66.284999999999997</v>
+        <v>66.466999999999999</v>
       </c>
       <c r="F19">
-        <v>211540429</v>
+        <v>214506502</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,16 +893,16 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D20">
-        <v>2.2357026100000001</v>
+        <v>2.1464750600000002</v>
       </c>
       <c r="E20">
-        <v>66.466999999999999</v>
+        <v>66.643000000000001</v>
       </c>
       <c r="F20">
-        <v>214506502</v>
+        <v>217508059</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,16 +913,16 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D21">
-        <v>2.1464750600000002</v>
+        <v>2.4479468199999999</v>
       </c>
       <c r="E21">
-        <v>66.643000000000001</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="F21">
-        <v>217508059</v>
+        <v>220545214</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,16 +933,16 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D22">
-        <v>2.4479468199999999</v>
+        <v>2.3115921099999999</v>
       </c>
       <c r="E22">
-        <v>66.819999999999993</v>
+        <v>67.001999999999995</v>
       </c>
       <c r="F22">
-        <v>220545214</v>
+        <v>223614649</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D23">
-        <v>2.3115921099999999</v>
+        <v>2.7587606999999998</v>
       </c>
       <c r="E23">
-        <v>67.001999999999995</v>
+        <v>67.191000000000003</v>
       </c>
       <c r="F23">
-        <v>223614649</v>
+        <v>226712730</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,16 +973,16 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D24">
-        <v>2.7587606999999998</v>
+        <v>2.85977083</v>
       </c>
       <c r="E24">
-        <v>67.191000000000003</v>
+        <v>67.385999999999996</v>
       </c>
       <c r="F24">
-        <v>226712730</v>
+        <v>229838202</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,16 +993,16 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D25">
-        <v>2.85977083</v>
+        <v>3.0753426099999999</v>
       </c>
       <c r="E25">
-        <v>67.385999999999996</v>
+        <v>67.581000000000003</v>
       </c>
       <c r="F25">
-        <v>229838202</v>
+        <v>232989141</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,16 +1013,16 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D26">
-        <v>3.0753426099999999</v>
+        <v>2.8079594000000001</v>
       </c>
       <c r="E26">
-        <v>67.581000000000003</v>
+        <v>67.775000000000006</v>
       </c>
       <c r="F26">
-        <v>232989141</v>
+        <v>236159276</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,16 +1033,16 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D27">
-        <v>2.8079594000000001</v>
+        <v>2.8345809000000002</v>
       </c>
       <c r="E27">
-        <v>67.775000000000006</v>
+        <v>67.963999999999999</v>
       </c>
       <c r="F27">
-        <v>236159276</v>
+        <v>239340478</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,16 +1053,16 @@
         <v>17</v>
       </c>
       <c r="C28">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D28">
-        <v>2.8345809000000002</v>
+        <v>3.4524693800000001</v>
       </c>
       <c r="E28">
-        <v>67.963999999999999</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="F28">
-        <v>239340478</v>
+        <v>242524123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,16 +1073,16 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D29">
-        <v>3.4524693800000001</v>
+        <v>3.34239123</v>
       </c>
       <c r="E29">
-        <v>68.150000000000006</v>
+        <v>68.331000000000003</v>
       </c>
       <c r="F29">
-        <v>242524123</v>
+        <v>245707511</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,16 +1093,16 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D30">
-        <v>3.34239123</v>
+        <v>3.3751379199999998</v>
       </c>
       <c r="E30">
-        <v>68.331000000000003</v>
+        <v>68.509</v>
       </c>
       <c r="F30">
-        <v>245707511</v>
+        <v>248883232</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,16 +1113,16 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D31">
-        <v>3.3751379199999998</v>
+        <v>3.37069441</v>
       </c>
       <c r="E31">
-        <v>68.509</v>
+        <v>68.683999999999997</v>
       </c>
       <c r="F31">
-        <v>248883232</v>
+        <v>252032263</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,16 +1133,16 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D32">
-        <v>3.37069441</v>
+        <v>3.44035739</v>
       </c>
       <c r="E32">
-        <v>68.683999999999997</v>
+        <v>68.855999999999995</v>
       </c>
       <c r="F32">
-        <v>252032263</v>
+        <v>255131116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,36 +1153,36 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D33">
-        <v>3.44035739</v>
+        <v>3.3474313699999998</v>
       </c>
       <c r="E33">
-        <v>68.855999999999995</v>
+        <v>69.025000000000006</v>
       </c>
       <c r="F33">
-        <v>255131116</v>
+        <v>258162113</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D34">
-        <v>3.3474313699999998</v>
+        <v>4.4898694099999998</v>
       </c>
       <c r="E34">
-        <v>69.025000000000006</v>
+        <v>71.954999999999998</v>
       </c>
       <c r="F34">
-        <v>258162113</v>
+        <v>1262645000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,13 +1193,16 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>1999</v>
+        <v>2001</v>
+      </c>
+      <c r="D35">
+        <v>4.3535437699999999</v>
       </c>
       <c r="E35">
-        <v>71.521000000000001</v>
+        <v>72.400999999999996</v>
       </c>
       <c r="F35">
-        <v>1252735000</v>
+        <v>1271850000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,16 +1213,16 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D36">
-        <v>4.4898694099999998</v>
+        <v>4.5452878800000001</v>
       </c>
       <c r="E36">
-        <v>71.954999999999998</v>
+        <v>72.84</v>
       </c>
       <c r="F36">
-        <v>1262645000</v>
+        <v>1280400000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,16 +1233,16 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D37">
-        <v>4.3535437699999999</v>
+        <v>4.5610763199999997</v>
       </c>
       <c r="E37">
-        <v>72.400999999999996</v>
+        <v>73.257000000000005</v>
       </c>
       <c r="F37">
-        <v>1271850000</v>
+        <v>1288400000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,16 +1253,16 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D38">
-        <v>4.5452878800000001</v>
+        <v>4.4090707</v>
       </c>
       <c r="E38">
-        <v>72.84</v>
+        <v>73.641999999999996</v>
       </c>
       <c r="F38">
-        <v>1280400000</v>
+        <v>1296075000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,16 +1273,16 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D39">
-        <v>4.5610763199999997</v>
+        <v>4.29369025</v>
       </c>
       <c r="E39">
-        <v>73.257000000000005</v>
+        <v>73.986999999999995</v>
       </c>
       <c r="F39">
-        <v>1288400000</v>
+        <v>1303720000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,16 +1293,16 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D40">
-        <v>4.4090707</v>
+        <v>4.1599282999999998</v>
       </c>
       <c r="E40">
-        <v>73.641999999999996</v>
+        <v>74.290999999999997</v>
       </c>
       <c r="F40">
-        <v>1296075000</v>
+        <v>1311020000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D41">
-        <v>4.29369025</v>
+        <v>3.9967082999999999</v>
       </c>
       <c r="E41">
-        <v>73.986999999999995</v>
+        <v>74.561999999999998</v>
       </c>
       <c r="F41">
-        <v>1303720000</v>
+        <v>1317885000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,16 +1333,16 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D42">
-        <v>4.1599282999999998</v>
+        <v>4.2566380600000002</v>
       </c>
       <c r="E42">
-        <v>74.290999999999997</v>
+        <v>74.808000000000007</v>
       </c>
       <c r="F42">
-        <v>1311020000</v>
+        <v>1324655000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,16 +1353,16 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D43">
-        <v>3.9967082999999999</v>
+        <v>4.6035917700000004</v>
       </c>
       <c r="E43">
-        <v>74.561999999999998</v>
+        <v>75.031999999999996</v>
       </c>
       <c r="F43">
-        <v>1317885000</v>
+        <v>1331260000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,16 +1373,16 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D44">
-        <v>4.2566380600000002</v>
+        <v>4.4577217200000003</v>
       </c>
       <c r="E44">
-        <v>74.808000000000007</v>
+        <v>75.236000000000004</v>
       </c>
       <c r="F44">
-        <v>1324655000</v>
+        <v>1337705000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,16 +1393,16 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D45">
-        <v>4.6035917700000004</v>
+        <v>4.6192628899999999</v>
       </c>
       <c r="E45">
-        <v>75.031999999999996</v>
+        <v>75.424999999999997</v>
       </c>
       <c r="F45">
-        <v>1331260000</v>
+        <v>1344130000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,16 +1413,16 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D46">
-        <v>4.4577217200000003</v>
+        <v>4.7930862000000003</v>
       </c>
       <c r="E46">
-        <v>75.236000000000004</v>
+        <v>75.602000000000004</v>
       </c>
       <c r="F46">
-        <v>1337705000</v>
+        <v>1350695000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,16 +1433,16 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D47">
-        <v>4.6192628899999999</v>
+        <v>4.8661108200000003</v>
       </c>
       <c r="E47">
-        <v>75.424999999999997</v>
+        <v>75.769000000000005</v>
       </c>
       <c r="F47">
-        <v>1344130000</v>
+        <v>1357380000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,16 +1453,16 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D48">
-        <v>4.7930862000000003</v>
+        <v>4.9641641700000001</v>
       </c>
       <c r="E48">
-        <v>75.602000000000004</v>
+        <v>75.932000000000002</v>
       </c>
       <c r="F48">
-        <v>1350695000</v>
+        <v>1364270000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,87 +1473,96 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D49">
-        <v>4.8661108200000003</v>
+        <v>5.3158677699999997</v>
       </c>
       <c r="E49">
-        <v>75.769000000000005</v>
+        <v>76.091999999999999</v>
       </c>
       <c r="F49">
-        <v>1357380000</v>
+        <v>1371220000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D50">
-        <v>4.9641641700000001</v>
+        <v>4.1790684999999996</v>
       </c>
       <c r="E50">
-        <v>75.932000000000002</v>
+        <v>62.582000000000001</v>
       </c>
       <c r="F50">
-        <v>1364270000</v>
+        <v>1053050912</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D51">
-        <v>5.3158677699999997</v>
+        <v>4.2764228500000003</v>
       </c>
       <c r="E51">
-        <v>76.091999999999999</v>
+        <v>62.976999999999997</v>
       </c>
       <c r="F51">
-        <v>1371220000</v>
+        <v>1071477855</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>2016</v>
+        <v>2002</v>
+      </c>
+      <c r="D52">
+        <v>4.2496576399999997</v>
       </c>
       <c r="E52">
-        <v>76.251999999999995</v>
+        <v>63.368000000000002</v>
       </c>
       <c r="F52">
-        <v>1378665000</v>
+        <v>1089807112</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>2017</v>
+        <v>2003</v>
+      </c>
+      <c r="D53">
+        <v>4.0135685700000003</v>
+      </c>
+      <c r="E53">
+        <v>63.759</v>
       </c>
       <c r="F53">
-        <v>1386395000</v>
+        <v>1108027848</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,13 +1573,16 @@
         <v>36</v>
       </c>
       <c r="C54">
-        <v>1998</v>
+        <v>2004</v>
+      </c>
+      <c r="D54">
+        <v>3.95739354</v>
       </c>
       <c r="E54">
-        <v>61.761000000000003</v>
+        <v>64.153999999999996</v>
       </c>
       <c r="F54">
-        <v>1015974042</v>
+        <v>1126135777</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,13 +1593,16 @@
         <v>36</v>
       </c>
       <c r="C55">
-        <v>1999</v>
+        <v>2005</v>
+      </c>
+      <c r="D55">
+        <v>3.7911622999999999</v>
       </c>
       <c r="E55">
-        <v>62.179000000000002</v>
+        <v>64.555999999999997</v>
       </c>
       <c r="F55">
-        <v>1034539214</v>
+        <v>1144118674</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,16 +1613,16 @@
         <v>36</v>
       </c>
       <c r="C56">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D56">
-        <v>4.1790684999999996</v>
+        <v>3.6347779199999999</v>
       </c>
       <c r="E56">
-        <v>62.582000000000001</v>
+        <v>64.965999999999994</v>
       </c>
       <c r="F56">
-        <v>1053050912</v>
+        <v>1161977719</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,16 +1633,16 @@
         <v>36</v>
       </c>
       <c r="C57">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D57">
-        <v>4.2764228500000003</v>
+        <v>3.51754173</v>
       </c>
       <c r="E57">
-        <v>62.976999999999997</v>
+        <v>65.382999999999996</v>
       </c>
       <c r="F57">
-        <v>1071477855</v>
+        <v>1179681239</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,16 +1653,16 @@
         <v>36</v>
       </c>
       <c r="C58">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D58">
-        <v>4.2496576399999997</v>
+        <v>3.5146788</v>
       </c>
       <c r="E58">
-        <v>63.368000000000002</v>
+        <v>65.802000000000007</v>
       </c>
       <c r="F58">
-        <v>1089807112</v>
+        <v>1197146906</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,16 +1673,16 @@
         <v>36</v>
       </c>
       <c r="C59">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D59">
-        <v>4.0135685700000003</v>
+        <v>3.4853802599999999</v>
       </c>
       <c r="E59">
-        <v>63.759</v>
+        <v>66.218999999999994</v>
       </c>
       <c r="F59">
-        <v>1108027848</v>
+        <v>1214270132</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,16 +1693,16 @@
         <v>36</v>
       </c>
       <c r="C60">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D60">
-        <v>3.95739354</v>
+        <v>3.2721214399999998</v>
       </c>
       <c r="E60">
-        <v>64.153999999999996</v>
+        <v>66.625</v>
       </c>
       <c r="F60">
-        <v>1126135777</v>
+        <v>1230980691</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,16 +1713,16 @@
         <v>36</v>
       </c>
       <c r="C61">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D61">
-        <v>3.7911622999999999</v>
+        <v>3.2464502199999998</v>
       </c>
       <c r="E61">
-        <v>64.555999999999997</v>
+        <v>67.013000000000005</v>
       </c>
       <c r="F61">
-        <v>1144118674</v>
+        <v>1247236029</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,16 +1733,16 @@
         <v>36</v>
       </c>
       <c r="C62">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D62">
-        <v>3.6347779199999999</v>
+        <v>3.3284739800000001</v>
       </c>
       <c r="E62">
-        <v>64.965999999999994</v>
+        <v>67.376999999999995</v>
       </c>
       <c r="F62">
-        <v>1161977719</v>
+        <v>1263065852</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,16 +1753,16 @@
         <v>36</v>
       </c>
       <c r="C63">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D63">
-        <v>3.51754173</v>
+        <v>3.7484264600000001</v>
       </c>
       <c r="E63">
-        <v>65.382999999999996</v>
+        <v>67.713999999999999</v>
       </c>
       <c r="F63">
-        <v>1179681239</v>
+        <v>1278562207</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,16 +1773,16 @@
         <v>36</v>
       </c>
       <c r="C64">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D64">
-        <v>3.5146788</v>
+        <v>3.6295247700000002</v>
       </c>
       <c r="E64">
-        <v>65.802000000000007</v>
+        <v>68.021000000000001</v>
       </c>
       <c r="F64">
-        <v>1197146906</v>
+        <v>1293859294</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,167 +1793,176 @@
         <v>36</v>
       </c>
       <c r="C65">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D65">
-        <v>3.4853802599999999</v>
+        <v>3.8882568800000001</v>
       </c>
       <c r="E65">
-        <v>66.218999999999994</v>
+        <v>68.302000000000007</v>
       </c>
       <c r="F65">
-        <v>1214270132</v>
+        <v>1309053980</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D66">
-        <v>3.2721214399999998</v>
+        <v>2.4347499899999998</v>
       </c>
       <c r="E66">
-        <v>66.625</v>
+        <v>72.8</v>
       </c>
       <c r="F66">
-        <v>1230980691</v>
+        <v>23185608</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D67">
-        <v>3.2464502199999998</v>
+        <v>2.6808957100000002</v>
       </c>
       <c r="E67">
-        <v>67.013000000000005</v>
+        <v>72.965999999999994</v>
       </c>
       <c r="F67">
-        <v>1247236029</v>
+        <v>23698907</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D68">
-        <v>3.3284739800000001</v>
+        <v>2.7271902799999999</v>
       </c>
       <c r="E68">
-        <v>67.376999999999995</v>
+        <v>73.113</v>
       </c>
       <c r="F68">
-        <v>1263065852</v>
+        <v>24198811</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D69">
-        <v>3.7484264600000001</v>
+        <v>3.0191623000000001</v>
       </c>
       <c r="E69">
-        <v>67.713999999999999</v>
+        <v>73.242000000000004</v>
       </c>
       <c r="F69">
-        <v>1278562207</v>
+        <v>24688703</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D70">
-        <v>3.6295247700000002</v>
+        <v>2.9856073099999998</v>
       </c>
       <c r="E70">
-        <v>68.021000000000001</v>
+        <v>73.355999999999995</v>
       </c>
       <c r="F70">
-        <v>1293859294</v>
+        <v>25174109</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D71">
-        <v>3.8882568800000001</v>
+        <v>2.9270194799999998</v>
       </c>
       <c r="E71">
-        <v>68.302000000000007</v>
+        <v>73.462999999999994</v>
       </c>
       <c r="F71">
-        <v>1309053980</v>
+        <v>25659393</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>2016</v>
+        <v>2006</v>
+      </c>
+      <c r="D72">
+        <v>3.26734064</v>
       </c>
       <c r="E72">
-        <v>68.56</v>
+        <v>73.576999999999998</v>
       </c>
       <c r="F72">
-        <v>1324171354</v>
+        <v>26143566</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="D73">
+        <v>3.2620222999999999</v>
+      </c>
+      <c r="E73">
+        <v>73.703999999999994</v>
       </c>
       <c r="F73">
-        <v>1339180127</v>
+        <v>26625845</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,13 +1973,16 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1998</v>
+        <v>2008</v>
+      </c>
+      <c r="D74">
+        <v>3.1001089099999999</v>
       </c>
       <c r="E74">
-        <v>72.421999999999997</v>
+        <v>73.852000000000004</v>
       </c>
       <c r="F74">
-        <v>22113464</v>
+        <v>27111069</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,13 +1993,16 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1999</v>
+        <v>2009</v>
+      </c>
+      <c r="D75">
+        <v>3.4237541399999998</v>
       </c>
       <c r="E75">
-        <v>72.616</v>
+        <v>74.022000000000006</v>
       </c>
       <c r="F75">
-        <v>22656286</v>
+        <v>27605383</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D76">
-        <v>2.4347499899999998</v>
+        <v>3.3292645200000002</v>
       </c>
       <c r="E76">
-        <v>72.8</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="F76">
-        <v>23185608</v>
+        <v>28112289</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D77">
-        <v>2.6808957100000002</v>
+        <v>3.4746256899999999</v>
       </c>
       <c r="E77">
-        <v>72.965999999999994</v>
+        <v>74.408000000000001</v>
       </c>
       <c r="F77">
-        <v>23698907</v>
+        <v>28635128</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D78">
-        <v>2.7271902799999999</v>
+        <v>3.62978231</v>
       </c>
       <c r="E78">
-        <v>73.113</v>
+        <v>74.605999999999995</v>
       </c>
       <c r="F78">
-        <v>24198811</v>
+        <v>29170456</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D79">
-        <v>3.0191623000000001</v>
+        <v>3.6733672400000001</v>
       </c>
       <c r="E79">
-        <v>73.242000000000004</v>
+        <v>74.796999999999997</v>
       </c>
       <c r="F79">
-        <v>24688703</v>
+        <v>29706724</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D80">
-        <v>2.9856073099999998</v>
+        <v>3.88997781</v>
       </c>
       <c r="E80">
-        <v>73.355999999999995</v>
+        <v>74.975999999999999</v>
       </c>
       <c r="F80">
-        <v>25174109</v>
+        <v>30228017</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,247 +2113,256 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D81">
-        <v>2.9270194799999998</v>
+        <v>3.99868581</v>
       </c>
       <c r="E81">
-        <v>73.462999999999994</v>
+        <v>75.143000000000001</v>
       </c>
       <c r="F81">
-        <v>25659393</v>
+        <v>30723155</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D82">
-        <v>3.26734064</v>
+        <v>7.4700846099999998</v>
       </c>
       <c r="E82">
-        <v>73.576999999999998</v>
+        <v>78.636585365853662</v>
       </c>
       <c r="F82">
-        <v>26143566</v>
+        <v>3857700</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D83">
-        <v>3.2620222999999999</v>
+        <v>7.5788770400000001</v>
       </c>
       <c r="E83">
-        <v>73.703999999999994</v>
+        <v>78.692682926829278</v>
       </c>
       <c r="F83">
-        <v>26625845</v>
+        <v>3880500</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D84">
-        <v>3.1001089099999999</v>
+        <v>7.9002840599999997</v>
       </c>
       <c r="E84">
-        <v>73.852000000000004</v>
+        <v>78.846341463414632</v>
       </c>
       <c r="F84">
-        <v>27111069</v>
+        <v>3948500</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D85">
-        <v>3.4237541399999998</v>
+        <v>7.7216924300000001</v>
       </c>
       <c r="E85">
-        <v>74.022000000000006</v>
+        <v>79.146341463414643</v>
       </c>
       <c r="F85">
-        <v>27605383</v>
+        <v>4027200</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D86">
-        <v>3.3292645200000002</v>
+        <v>7.9009569199999996</v>
       </c>
       <c r="E86">
-        <v>74.209999999999994</v>
+        <v>79.548780487804876</v>
       </c>
       <c r="F86">
-        <v>28112289</v>
+        <v>4087500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D87">
-        <v>3.4746256899999999</v>
+        <v>8.2733993699999999</v>
       </c>
       <c r="E87">
-        <v>74.408000000000001</v>
+        <v>79.851219512195144</v>
       </c>
       <c r="F87">
-        <v>28635128</v>
+        <v>4133900</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D88">
-        <v>3.62978231</v>
+        <v>8.6329457999999999</v>
       </c>
       <c r="E88">
-        <v>74.605999999999995</v>
+        <v>80.048780487804891</v>
       </c>
       <c r="F88">
-        <v>29170456</v>
+        <v>4184600</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D89">
-        <v>3.6733672400000001</v>
+        <v>8.3213770799999995</v>
       </c>
       <c r="E89">
-        <v>74.796999999999997</v>
+        <v>80.151219512195127</v>
       </c>
       <c r="F89">
-        <v>29706724</v>
+        <v>4223800</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D90">
-        <v>3.88997781</v>
+        <v>9.1423704499999996</v>
       </c>
       <c r="E90">
-        <v>74.975999999999999</v>
+        <v>80.351219512195144</v>
       </c>
       <c r="F90">
-        <v>30228017</v>
+        <v>4259800</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D91">
-        <v>3.99868581</v>
+        <v>9.6704782500000004</v>
       </c>
       <c r="E91">
-        <v>75.143000000000001</v>
+        <v>80.702439024390245</v>
       </c>
       <c r="F91">
-        <v>30723155</v>
+        <v>4302600</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>2016</v>
+        <v>2010</v>
+      </c>
+      <c r="D92">
+        <v>9.6589255400000003</v>
       </c>
       <c r="E92">
-        <v>75.3</v>
+        <v>80.702439024390245</v>
       </c>
       <c r="F92">
-        <v>31187265</v>
+        <v>4350700</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>2017</v>
+        <v>2011</v>
+      </c>
+      <c r="D93">
+        <v>9.5642282699999992</v>
+      </c>
+      <c r="E93">
+        <v>80.904878048780489</v>
       </c>
       <c r="F93">
-        <v>31624264</v>
+        <v>4384000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,13 +2373,16 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>1998</v>
+        <v>2012</v>
+      </c>
+      <c r="D94">
+        <v>9.6994491200000006</v>
       </c>
       <c r="E94">
-        <v>78.085365853658544</v>
+        <v>81.156097560975624</v>
       </c>
       <c r="F94">
-        <v>3815000</v>
+        <v>4408100</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,13 +2393,16 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>1999</v>
+        <v>2013</v>
+      </c>
+      <c r="D95">
+        <v>9.4067147599999998</v>
       </c>
       <c r="E95">
-        <v>77.890243902439039</v>
+        <v>81.407317073170731</v>
       </c>
       <c r="F95">
-        <v>3835100</v>
+        <v>4442100</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="D96">
-        <v>7.4700846099999998</v>
+        <v>9.4028814399999998</v>
       </c>
       <c r="E96">
-        <v>78.636585365853662</v>
+        <v>81.404878048780489</v>
       </c>
       <c r="F96">
-        <v>3857700</v>
+        <v>4509700</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,1876 +2433,1305 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="D97">
-        <v>7.5788770400000001</v>
+        <v>9.3403511399999992</v>
       </c>
       <c r="E97">
-        <v>78.692682926829278</v>
+        <v>81.456829268292694</v>
       </c>
       <c r="F97">
-        <v>3880500</v>
+        <v>4595700</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D98">
-        <v>7.9002840599999997</v>
+        <v>3.35174174</v>
       </c>
       <c r="E98">
-        <v>78.846341463414632</v>
+        <v>77.951219512195138</v>
       </c>
       <c r="F98">
-        <v>3948500</v>
+        <v>4027887</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D99">
-        <v>7.7216924300000001</v>
+        <v>3.18105875</v>
       </c>
       <c r="E99">
-        <v>79.146341463414643</v>
+        <v>78.251219512195121</v>
       </c>
       <c r="F99">
-        <v>4027200</v>
+        <v>4138012</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D100">
-        <v>7.9009569199999996</v>
+        <v>3.3802512400000002</v>
       </c>
       <c r="E100">
-        <v>79.548780487804876</v>
+        <v>78.551219512195118</v>
       </c>
       <c r="F100">
-        <v>4087500</v>
+        <v>4175950</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D101">
-        <v>8.2733993699999999</v>
+        <v>3.6309403100000002</v>
       </c>
       <c r="E101">
-        <v>79.851219512195144</v>
+        <v>79.039024390243895</v>
       </c>
       <c r="F101">
-        <v>4133900</v>
+        <v>4114826</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D102">
-        <v>8.6329457999999999</v>
+        <v>3.17355499</v>
       </c>
       <c r="E102">
-        <v>80.048780487804891</v>
+        <v>79.490243902439019</v>
       </c>
       <c r="F102">
-        <v>4184600</v>
+        <v>4166664</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D103">
-        <v>8.3213770799999995</v>
+        <v>3.0429631599999998</v>
       </c>
       <c r="E103">
-        <v>80.151219512195127</v>
+        <v>79.990243902439033</v>
       </c>
       <c r="F103">
-        <v>4223800</v>
+        <v>4265762</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D104">
-        <v>9.1423704499999996</v>
+        <v>2.9512926300000002</v>
       </c>
       <c r="E104">
-        <v>80.351219512195144</v>
+        <v>80.141463414634146</v>
       </c>
       <c r="F104">
-        <v>4259800</v>
+        <v>4401365</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D105">
-        <v>9.6704782500000004</v>
+        <v>2.8526377300000001</v>
       </c>
       <c r="E105">
-        <v>80.702439024390245</v>
+        <v>80.441463414634157</v>
       </c>
       <c r="F105">
-        <v>4302600</v>
+        <v>4588599</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D106">
-        <v>9.6589255400000003</v>
+        <v>3.2179315900000001</v>
       </c>
       <c r="E106">
-        <v>80.702439024390245</v>
+        <v>80.79024390243903</v>
       </c>
       <c r="F106">
-        <v>4350700</v>
+        <v>4839396</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D107">
-        <v>9.5642282699999992</v>
+        <v>3.4027971300000002</v>
       </c>
       <c r="E107">
-        <v>80.904878048780489</v>
+        <v>81.241463414634154</v>
       </c>
       <c r="F107">
-        <v>4384000</v>
+        <v>4987573</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D108">
-        <v>9.6994491200000006</v>
+        <v>3.22588651</v>
       </c>
       <c r="E108">
-        <v>81.156097560975624</v>
+        <v>81.541463414634165</v>
       </c>
       <c r="F108">
-        <v>4408100</v>
+        <v>5076732</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D109">
-        <v>9.4067147599999998</v>
+        <v>3.1749694900000001</v>
       </c>
       <c r="E109">
-        <v>81.407317073170731</v>
+        <v>81.743902439024396</v>
       </c>
       <c r="F109">
-        <v>4442100</v>
+        <v>5183688</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D110">
-        <v>9.4028814399999998</v>
+        <v>3.36916035</v>
       </c>
       <c r="E110">
-        <v>81.404878048780489</v>
+        <v>81.995121951219517</v>
       </c>
       <c r="F110">
-        <v>4509700</v>
+        <v>5312437</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D111">
-        <v>9.3403511399999992</v>
+        <v>3.7206893999999999</v>
       </c>
       <c r="E111">
-        <v>81.456829268292694</v>
+        <v>82.246341463414652</v>
       </c>
       <c r="F111">
-        <v>4595700</v>
+        <v>5399162</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="D112">
+        <v>3.92728353</v>
       </c>
       <c r="E112">
-        <v>81.612439024390255</v>
+        <v>82.495121951219531</v>
       </c>
       <c r="F112">
-        <v>4693200</v>
+        <v>5469724</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>2017</v>
+        <v>2015</v>
+      </c>
+      <c r="D113">
+        <v>4.25217534</v>
+      </c>
+      <c r="E113">
+        <v>82.743902439024396</v>
       </c>
       <c r="F113">
-        <v>4793900</v>
+        <v>5535002</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>1998</v>
+        <v>2000</v>
+      </c>
+      <c r="D114">
+        <v>4.1372754699999996</v>
       </c>
       <c r="E114">
-        <v>77.300000000000011</v>
+        <v>71.001999999999995</v>
       </c>
       <c r="F114">
-        <v>3927213</v>
+        <v>18781938</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>1999</v>
+        <v>2001</v>
+      </c>
+      <c r="D115">
+        <v>4.0673481100000002</v>
       </c>
       <c r="E115">
-        <v>77.551219512195118</v>
+        <v>71.775000000000006</v>
       </c>
       <c r="F115">
-        <v>3958723</v>
+        <v>18913054</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D116">
-        <v>3.35174174</v>
+        <v>3.9310972799999999</v>
       </c>
       <c r="E116">
-        <v>77.951219512195138</v>
+        <v>72.510999999999996</v>
       </c>
       <c r="F116">
-        <v>4027887</v>
+        <v>19059300</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D117">
-        <v>3.18105875</v>
+        <v>3.6570715100000002</v>
       </c>
       <c r="E117">
-        <v>78.251219512195121</v>
+        <v>73.128</v>
       </c>
       <c r="F117">
-        <v>4138012</v>
+        <v>19215307</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D118">
-        <v>3.3802512400000002</v>
+        <v>3.9252010400000001</v>
       </c>
       <c r="E118">
-        <v>78.551219512195118</v>
+        <v>73.593000000000004</v>
       </c>
       <c r="F118">
-        <v>4175950</v>
+        <v>19372538</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D119">
-        <v>3.6309403100000002</v>
+        <v>3.78041998</v>
       </c>
       <c r="E119">
-        <v>79.039024390243895</v>
+        <v>73.896000000000001</v>
       </c>
       <c r="F119">
-        <v>4114826</v>
+        <v>19524558</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D120">
-        <v>3.17355499</v>
+        <v>3.7278035200000001</v>
       </c>
       <c r="E120">
-        <v>79.490243902439019</v>
+        <v>74.058999999999997</v>
       </c>
       <c r="F120">
-        <v>4166664</v>
+        <v>19670151</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D121">
-        <v>3.0429631599999998</v>
+        <v>3.63993346</v>
       </c>
       <c r="E121">
-        <v>79.990243902439033</v>
+        <v>74.144000000000005</v>
       </c>
       <c r="F121">
-        <v>4265762</v>
+        <v>19810789</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D122">
-        <v>2.9512926300000002</v>
+        <v>3.5481688</v>
       </c>
       <c r="E122">
-        <v>80.141463414634146</v>
+        <v>74.206999999999994</v>
       </c>
       <c r="F122">
-        <v>4401365</v>
+        <v>19945832</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D123">
-        <v>2.8526377300000001</v>
+        <v>3.6986206699999999</v>
       </c>
       <c r="E123">
-        <v>80.441463414634157</v>
+        <v>74.27</v>
       </c>
       <c r="F123">
-        <v>4588599</v>
+        <v>20075086</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D124">
-        <v>3.2179315900000001</v>
+        <v>2.9710641999999998</v>
       </c>
       <c r="E124">
-        <v>80.79024390243903</v>
+        <v>74.352000000000004</v>
       </c>
       <c r="F124">
-        <v>4839396</v>
+        <v>20198353</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D125">
-        <v>3.4027971300000002</v>
+        <v>2.9471719599999999</v>
       </c>
       <c r="E125">
-        <v>81.241463414634154</v>
+        <v>74.462000000000003</v>
       </c>
       <c r="F125">
-        <v>4987573</v>
+        <v>20315017</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D126">
-        <v>3.22588651</v>
+        <v>2.60568439</v>
       </c>
       <c r="E126">
-        <v>81.541463414634165</v>
+        <v>74.593000000000004</v>
       </c>
       <c r="F126">
-        <v>5076732</v>
+        <v>20425000</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D127">
-        <v>3.1749694900000001</v>
+        <v>2.7729424499999999</v>
       </c>
       <c r="E127">
-        <v>81.743902439024396</v>
+        <v>74.741</v>
       </c>
       <c r="F127">
-        <v>5183688</v>
+        <v>20585000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D128">
-        <v>3.36916035</v>
+        <v>2.8304062000000001</v>
       </c>
       <c r="E128">
-        <v>81.995121951219517</v>
+        <v>74.906000000000006</v>
       </c>
       <c r="F128">
-        <v>5312437</v>
+        <v>20771000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D129">
-        <v>3.7206893999999999</v>
+        <v>2.96601516</v>
       </c>
       <c r="E129">
-        <v>82.246341463414652</v>
+        <v>75.087999999999994</v>
       </c>
       <c r="F129">
-        <v>5399162</v>
+        <v>20966000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D130">
-        <v>3.92728353</v>
+        <v>4.3820100200000001</v>
       </c>
       <c r="E130">
-        <v>82.495121951219531</v>
+        <v>73.265000000000001</v>
       </c>
       <c r="F130">
-        <v>5469724</v>
+        <v>80285562</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D131">
-        <v>4.25217534</v>
+        <v>5.19719848</v>
       </c>
       <c r="E131">
-        <v>82.743902439024396</v>
+        <v>73.486999999999995</v>
       </c>
       <c r="F131">
-        <v>5535002</v>
+        <v>81139919</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>2016</v>
+        <v>2002</v>
+      </c>
+      <c r="D132">
+        <v>4.1130726299999996</v>
       </c>
       <c r="E132">
-        <v>82.795121951219514</v>
+        <v>73.694999999999993</v>
       </c>
       <c r="F132">
-        <v>5607283</v>
+        <v>81956496</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>2017</v>
+        <v>2003</v>
+      </c>
+      <c r="D133">
+        <v>4.1978315000000004</v>
+      </c>
+      <c r="E133">
+        <v>73.893000000000001</v>
       </c>
       <c r="F133">
-        <v>5612253</v>
+        <v>82747662</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>1998</v>
+        <v>2004</v>
+      </c>
+      <c r="D134">
+        <v>4.7258782000000004</v>
       </c>
       <c r="E134">
-        <v>69.744</v>
+        <v>74.081999999999994</v>
       </c>
       <c r="F134">
-        <v>18570701</v>
+        <v>83527678</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>1999</v>
+        <v>2005</v>
+      </c>
+      <c r="D135">
+        <v>4.98022425</v>
       </c>
       <c r="E135">
-        <v>70.296000000000006</v>
+        <v>74.263000000000005</v>
       </c>
       <c r="F135">
-        <v>18669103</v>
+        <v>84308843</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D136">
-        <v>4.1372754699999996</v>
+        <v>5.2788403300000004</v>
       </c>
       <c r="E136">
-        <v>71.001999999999995</v>
+        <v>74.438000000000002</v>
       </c>
       <c r="F136">
-        <v>18781938</v>
+        <v>85094617</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D137">
-        <v>4.0673481100000002</v>
+        <v>5.3430724600000001</v>
       </c>
       <c r="E137">
-        <v>71.775000000000006</v>
+        <v>74.608999999999995</v>
       </c>
       <c r="F137">
-        <v>18913054</v>
+        <v>85889590</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D138">
-        <v>3.9310972799999999</v>
+        <v>5.0192179799999996</v>
       </c>
       <c r="E138">
-        <v>72.510999999999996</v>
+        <v>74.777000000000001</v>
       </c>
       <c r="F138">
-        <v>19059300</v>
+        <v>86707801</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D139">
-        <v>3.6570715100000002</v>
+        <v>5.1716655300000003</v>
       </c>
       <c r="E139">
-        <v>73.128</v>
+        <v>74.945999999999998</v>
       </c>
       <c r="F139">
-        <v>19215307</v>
+        <v>87565407</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D140">
-        <v>3.9252010400000001</v>
+        <v>5.8544051399999999</v>
       </c>
       <c r="E140">
-        <v>73.593000000000004</v>
+        <v>75.117000000000004</v>
       </c>
       <c r="F140">
-        <v>19372538</v>
+        <v>88472512</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D141">
-        <v>3.78041998</v>
+        <v>5.7614236700000001</v>
       </c>
       <c r="E141">
-        <v>73.896000000000001</v>
+        <v>75.293999999999997</v>
       </c>
       <c r="F141">
-        <v>19524558</v>
+        <v>89436644</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D142">
-        <v>3.7278035200000001</v>
+        <v>6.4777134299999997</v>
       </c>
       <c r="E142">
-        <v>74.058999999999997</v>
+        <v>75.475999999999999</v>
       </c>
       <c r="F142">
-        <v>19670151</v>
+        <v>90451881</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D143">
-        <v>3.63993346</v>
+        <v>6.3714896699999999</v>
       </c>
       <c r="E143">
-        <v>74.144000000000005</v>
+        <v>75.662999999999997</v>
       </c>
       <c r="F143">
-        <v>19810789</v>
+        <v>91497725</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D144">
-        <v>3.5481688</v>
+        <v>5.7831772299999997</v>
       </c>
       <c r="E144">
-        <v>74.206999999999994</v>
+        <v>75.855000000000004</v>
       </c>
       <c r="F144">
-        <v>19945832</v>
+        <v>92544915</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D145">
-        <v>3.6986206699999999</v>
+        <v>5.65262156</v>
       </c>
       <c r="E145">
-        <v>74.27</v>
+        <v>76.052000000000007</v>
       </c>
       <c r="F145">
-        <v>20075086</v>
+        <v>93571567</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D146">
-        <v>2.9710641999999998</v>
+        <v>3.1939191500000002</v>
       </c>
       <c r="E146">
-        <v>74.352000000000004</v>
+        <v>70.623999999999995</v>
       </c>
       <c r="F146">
-        <v>20198353</v>
+        <v>62958021</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D147">
-        <v>2.9471719599999999</v>
+        <v>3.1509270100000002</v>
       </c>
       <c r="E147">
-        <v>74.462000000000003</v>
+        <v>70.840999999999994</v>
       </c>
       <c r="F147">
-        <v>20315017</v>
+        <v>63543322</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D148">
-        <v>2.60568439</v>
+        <v>3.5298488799999999</v>
       </c>
       <c r="E148">
-        <v>74.593000000000004</v>
+        <v>71.11</v>
       </c>
       <c r="F148">
-        <v>20425000</v>
+        <v>64073164</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D149">
-        <v>2.7729424499999999</v>
+        <v>3.4555382799999999</v>
       </c>
       <c r="E149">
-        <v>74.741</v>
+        <v>71.424000000000007</v>
       </c>
       <c r="F149">
-        <v>20585000</v>
+        <v>64554952</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C150">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D150">
-        <v>2.8304062000000001</v>
+        <v>3.3565076500000002</v>
       </c>
       <c r="E150">
-        <v>74.906000000000006</v>
+        <v>71.775000000000006</v>
       </c>
       <c r="F150">
-        <v>20771000</v>
+        <v>65002231</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C151">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D151">
-        <v>2.96601516</v>
+        <v>3.3872442399999998</v>
       </c>
       <c r="E151">
-        <v>75.087999999999994</v>
+        <v>72.149000000000001</v>
       </c>
       <c r="F151">
-        <v>20966000</v>
+        <v>65425470</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C152">
-        <v>2016</v>
+        <v>2006</v>
+      </c>
+      <c r="D152">
+        <v>3.3170623300000002</v>
       </c>
       <c r="E152">
-        <v>75.284000000000006</v>
+        <v>72.534000000000006</v>
       </c>
       <c r="F152">
-        <v>21203000</v>
+        <v>65824164</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C153">
-        <v>2017</v>
+        <v>2007</v>
+      </c>
+      <c r="D153">
+        <v>3.3973219600000002</v>
+      </c>
+      <c r="E153">
+        <v>72.915000000000006</v>
       </c>
       <c r="F153">
-        <v>21444000</v>
+        <v>66195615</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C154">
-        <v>1998</v>
+        <v>2008</v>
+      </c>
+      <c r="D154">
+        <v>3.7000307100000001</v>
       </c>
       <c r="E154">
-        <v>72.781000000000006</v>
+        <v>73.278999999999996</v>
       </c>
       <c r="F154">
-        <v>78452897</v>
+        <v>66545760</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>1999</v>
+        <v>2009</v>
+      </c>
+      <c r="D155">
+        <v>3.8664373699999999</v>
       </c>
       <c r="E155">
-        <v>73.03</v>
+        <v>73.617000000000004</v>
       </c>
       <c r="F155">
-        <v>79391374</v>
+        <v>66881867</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C156">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D156">
-        <v>4.3820100200000001</v>
+        <v>3.6260569999999999</v>
       </c>
       <c r="E156">
-        <v>73.265000000000001</v>
+        <v>73.923000000000002</v>
       </c>
       <c r="F156">
-        <v>80285562</v>
+        <v>67208808</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C157">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D157">
-        <v>5.19719848</v>
+        <v>3.8280847699999998</v>
       </c>
       <c r="E157">
-        <v>73.486999999999995</v>
+        <v>74.197000000000003</v>
       </c>
       <c r="F157">
-        <v>81139919</v>
+        <v>67530130</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C158">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="D158">
-        <v>4.1130726299999996</v>
+        <v>3.5253115899999998</v>
       </c>
       <c r="E158">
-        <v>73.694999999999993</v>
+        <v>74.445999999999998</v>
       </c>
       <c r="F158">
-        <v>81956496</v>
+        <v>67843979</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C159">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D159">
-        <v>4.1978315000000004</v>
+        <v>3.45679151</v>
       </c>
       <c r="E159">
-        <v>73.893000000000001</v>
+        <v>74.677999999999997</v>
       </c>
       <c r="F159">
-        <v>82747662</v>
+        <v>68143065</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C160">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="D160">
-        <v>4.7258782000000004</v>
+        <v>3.7119925399999998</v>
       </c>
       <c r="E160">
-        <v>74.081999999999994</v>
+        <v>74.894999999999996</v>
       </c>
       <c r="F160">
-        <v>83527678</v>
+        <v>68416772</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D161">
-        <v>4.98022425</v>
+        <v>3.77148642</v>
       </c>
       <c r="E161">
-        <v>74.263000000000005</v>
+        <v>75.102999999999994</v>
       </c>
       <c r="F161">
-        <v>84308843</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>2006</v>
-      </c>
-      <c r="D162">
-        <v>5.2788403300000004</v>
-      </c>
-      <c r="E162">
-        <v>74.438000000000002</v>
-      </c>
-      <c r="F162">
-        <v>85094617</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>2007</v>
-      </c>
-      <c r="D163">
-        <v>5.3430724600000001</v>
-      </c>
-      <c r="E163">
-        <v>74.608999999999995</v>
-      </c>
-      <c r="F163">
-        <v>85889590</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>2008</v>
-      </c>
-      <c r="D164">
-        <v>5.0192179799999996</v>
-      </c>
-      <c r="E164">
-        <v>74.777000000000001</v>
-      </c>
-      <c r="F164">
-        <v>86707801</v>
+        <v>68657600</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>2009</v>
-      </c>
-      <c r="D165">
-        <v>5.1716655300000003</v>
-      </c>
-      <c r="E165">
-        <v>74.945999999999998</v>
-      </c>
-      <c r="F165">
-        <v>87565407</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>2010</v>
-      </c>
-      <c r="D166">
-        <v>5.8544051399999999</v>
-      </c>
-      <c r="E166">
-        <v>75.117000000000004</v>
-      </c>
-      <c r="F166">
-        <v>88472512</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>2011</v>
-      </c>
-      <c r="D167">
-        <v>5.7614236700000001</v>
-      </c>
-      <c r="E167">
-        <v>75.293999999999997</v>
-      </c>
-      <c r="F167">
-        <v>89436644</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>2012</v>
-      </c>
-      <c r="D168">
-        <v>6.4777134299999997</v>
-      </c>
-      <c r="E168">
-        <v>75.475999999999999</v>
-      </c>
-      <c r="F168">
-        <v>90451881</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>2013</v>
-      </c>
-      <c r="D169">
-        <v>6.3714896699999999</v>
-      </c>
-      <c r="E169">
-        <v>75.662999999999997</v>
-      </c>
-      <c r="F169">
-        <v>91497725</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>2014</v>
-      </c>
-      <c r="D170">
-        <v>5.7831772299999997</v>
-      </c>
-      <c r="E170">
-        <v>75.855000000000004</v>
-      </c>
-      <c r="F170">
-        <v>92544915</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>2015</v>
-      </c>
-      <c r="D171">
-        <v>5.65262156</v>
-      </c>
-      <c r="E171">
-        <v>76.052000000000007</v>
-      </c>
-      <c r="F171">
-        <v>93571567</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <v>2016</v>
-      </c>
-      <c r="E172">
-        <v>76.253</v>
-      </c>
-      <c r="F172">
-        <v>94569072</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>2017</v>
-      </c>
-      <c r="F173">
-        <v>95540800</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174">
-        <v>1998</v>
-      </c>
-      <c r="E174">
-        <v>70.346000000000004</v>
-      </c>
-      <c r="F174">
-        <v>61597283</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175">
-        <v>1999</v>
-      </c>
-      <c r="E175">
-        <v>70.462000000000003</v>
-      </c>
-      <c r="F175">
-        <v>62306651</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176">
-        <v>2000</v>
-      </c>
-      <c r="D176">
-        <v>3.1939191500000002</v>
-      </c>
-      <c r="E176">
-        <v>70.623999999999995</v>
-      </c>
-      <c r="F176">
-        <v>62958021</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177">
-        <v>2001</v>
-      </c>
-      <c r="D177">
-        <v>3.1509270100000002</v>
-      </c>
-      <c r="E177">
-        <v>70.840999999999994</v>
-      </c>
-      <c r="F177">
-        <v>63543322</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178">
-        <v>2002</v>
-      </c>
-      <c r="D178">
-        <v>3.5298488799999999</v>
-      </c>
-      <c r="E178">
-        <v>71.11</v>
-      </c>
-      <c r="F178">
-        <v>64073164</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179">
-        <v>2003</v>
-      </c>
-      <c r="D179">
-        <v>3.4555382799999999</v>
-      </c>
-      <c r="E179">
-        <v>71.424000000000007</v>
-      </c>
-      <c r="F179">
-        <v>64554952</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180">
-        <v>2004</v>
-      </c>
-      <c r="D180">
-        <v>3.3565076500000002</v>
-      </c>
-      <c r="E180">
-        <v>71.775000000000006</v>
-      </c>
-      <c r="F180">
-        <v>65002231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181">
-        <v>2005</v>
-      </c>
-      <c r="D181">
-        <v>3.3872442399999998</v>
-      </c>
-      <c r="E181">
-        <v>72.149000000000001</v>
-      </c>
-      <c r="F181">
-        <v>65425470</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182">
-        <v>2006</v>
-      </c>
-      <c r="D182">
-        <v>3.3170623300000002</v>
-      </c>
-      <c r="E182">
-        <v>72.534000000000006</v>
-      </c>
-      <c r="F182">
-        <v>65824164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183">
-        <v>2007</v>
-      </c>
-      <c r="D183">
-        <v>3.3973219600000002</v>
-      </c>
-      <c r="E183">
-        <v>72.915000000000006</v>
-      </c>
-      <c r="F183">
-        <v>66195615</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184">
-        <v>2008</v>
-      </c>
-      <c r="D184">
-        <v>3.7000307100000001</v>
-      </c>
-      <c r="E184">
-        <v>73.278999999999996</v>
-      </c>
-      <c r="F184">
-        <v>66545760</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185">
-        <v>2009</v>
-      </c>
-      <c r="D185">
-        <v>3.8664373699999999</v>
-      </c>
-      <c r="E185">
-        <v>73.617000000000004</v>
-      </c>
-      <c r="F185">
-        <v>66881867</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186">
-        <v>2010</v>
-      </c>
-      <c r="D186">
-        <v>3.6260569999999999</v>
-      </c>
-      <c r="E186">
-        <v>73.923000000000002</v>
-      </c>
-      <c r="F186">
-        <v>67208808</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187">
-        <v>2011</v>
-      </c>
-      <c r="D187">
-        <v>3.8280847699999998</v>
-      </c>
-      <c r="E187">
-        <v>74.197000000000003</v>
-      </c>
-      <c r="F187">
-        <v>67530130</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188">
-        <v>2012</v>
-      </c>
-      <c r="D188">
-        <v>3.5253115899999998</v>
-      </c>
-      <c r="E188">
-        <v>74.445999999999998</v>
-      </c>
-      <c r="F188">
-        <v>67843979</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189">
-        <v>2013</v>
-      </c>
-      <c r="D189">
-        <v>3.45679151</v>
-      </c>
-      <c r="E189">
-        <v>74.677999999999997</v>
-      </c>
-      <c r="F189">
-        <v>68143065</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" t="s">
-        <v>10</v>
-      </c>
-      <c r="C190">
-        <v>2014</v>
-      </c>
-      <c r="D190">
-        <v>3.7119925399999998</v>
-      </c>
-      <c r="E190">
-        <v>74.894999999999996</v>
-      </c>
-      <c r="F190">
-        <v>68416772</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>8</v>
-      </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191">
-        <v>2015</v>
-      </c>
-      <c r="D191">
-        <v>3.77148642</v>
-      </c>
-      <c r="E191">
-        <v>75.102999999999994</v>
-      </c>
-      <c r="F191">
-        <v>68657600</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192">
-        <v>2016</v>
-      </c>
-      <c r="E192">
-        <v>75.302999999999997</v>
-      </c>
-      <c r="F192">
-        <v>68863514</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193">
-        <v>2017</v>
-      </c>
-      <c r="F193">
-        <v>69037513</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
         <v>22</v>
       </c>
     </row>

--- a/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="43">
   <si>
     <t>MYS</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Population, total [SP.POP.TOTL]</t>
-  </si>
-  <si>
     <t>Long definition</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>AUS</t>
   </si>
   <si>
-    <t>Current health expenditure (% of GDP) [SH.XPD.CHEX.GD.ZS]</t>
-  </si>
-  <si>
     <t>Life expectancy at birth, total (years)</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Current health expenditure (% of GDP)</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
     <t>Life expectancy at birth indicates the number of years a newborn infant would live if prevailing patterns of mortality at the time of its birth were to stay the same throughout its life.</t>
   </si>
   <si>
@@ -124,18 +115,12 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Country Code</t>
-  </si>
-  <si>
     <t>(1) United Nations Population Division. World Population Prospects: 2017 Revision. (2) Census reports and other statistical publications from national statistical offices, (3) Eurostat: Demographic Statistics, (4) United Nations Statistical Division. Population and Vital Statistics Reprot (various years), (5) U.S. Census Bureau: International Database, and (6) Secretariat of the Pacific Community: Statistics and Demography Programme.</t>
   </si>
   <si>
     <t>IND</t>
   </si>
   <si>
-    <t>Life expectancy at birth, total (years) [SP.DYN.LE00.IN]</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -152,6 +137,18 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Health expenditure</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -494,12 +491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:XFD163"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -507,22 +506,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -550,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -570,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -590,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -610,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -630,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -650,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -670,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -690,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -710,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -730,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -750,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -770,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -790,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -810,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -830,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -850,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>2000</v>
@@ -870,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>2001</v>
@@ -890,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>2002</v>
@@ -910,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2003</v>
@@ -930,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>2004</v>
@@ -950,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>2005</v>
@@ -970,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>2006</v>
@@ -990,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>2007</v>
@@ -1010,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>2008</v>
@@ -1030,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>2009</v>
@@ -1050,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>2010</v>
@@ -1070,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>2011</v>
@@ -1090,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>2012</v>
@@ -1110,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>2013</v>
@@ -1130,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>2014</v>
@@ -1150,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>2015</v>
@@ -1487,10 +1486,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -1507,10 +1506,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>2001</v>
@@ -1527,10 +1526,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C52">
         <v>2002</v>
@@ -1547,10 +1546,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>2003</v>
@@ -1567,10 +1566,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>2004</v>
@@ -1587,10 +1586,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>2005</v>
@@ -1607,10 +1606,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>2006</v>
@@ -1627,10 +1626,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>2007</v>
@@ -1647,10 +1646,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>2008</v>
@@ -1667,10 +1666,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>2009</v>
@@ -1687,10 +1686,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>2010</v>
@@ -1707,10 +1706,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>2011</v>
@@ -1727,10 +1726,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>2012</v>
@@ -1747,10 +1746,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>2013</v>
@@ -1767,10 +1766,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>2014</v>
@@ -1787,10 +1786,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C65">
         <v>2015</v>
@@ -1807,7 +1806,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -1827,7 +1826,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -1847,7 +1846,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -1867,7 +1866,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -1887,7 +1886,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -1907,7 +1906,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -1927,7 +1926,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -1947,7 +1946,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -1967,7 +1966,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -1987,7 +1986,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -2007,7 +2006,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -2027,7 +2026,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -2047,7 +2046,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -2067,7 +2066,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -2087,7 +2086,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -2127,7 +2126,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -2147,7 +2146,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -2167,7 +2166,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -2187,7 +2186,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -2207,7 +2206,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -2227,7 +2226,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -2247,7 +2246,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -2267,7 +2266,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -2287,7 +2286,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -2307,7 +2306,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -2327,7 +2326,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -2347,7 +2346,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -2367,7 +2366,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -2387,7 +2386,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -2407,7 +2406,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -2427,7 +2426,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -2447,7 +2446,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2467,7 +2466,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2487,7 +2486,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2507,7 +2506,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2527,7 +2526,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2547,7 +2546,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2567,7 +2566,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2587,7 +2586,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2607,7 +2606,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2627,7 +2626,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2647,7 +2646,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2667,7 +2666,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2687,7 +2686,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2707,7 +2706,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2727,7 +2726,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2747,7 +2746,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2767,7 +2766,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2787,7 +2786,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2807,7 +2806,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2827,7 +2826,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2847,7 +2846,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2867,7 +2866,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -2887,7 +2886,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -2907,7 +2906,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2927,7 +2926,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2947,7 +2946,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2967,7 +2966,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2987,7 +2986,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -3007,7 +3006,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -3027,7 +3026,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -3047,7 +3046,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -3067,7 +3066,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -3727,12 +3726,12 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3754,30 +3753,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,10 +3784,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -3796,16 +3795,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/TPC/7_WorldBankData/Data_Extract_From_World_Development_Indicators.xlsx
@@ -94,9 +94,6 @@
     <t>SP.POP.TOTL</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -145,10 +142,13 @@
     <t>Health expenditure</t>
   </si>
   <si>
-    <t>Life expectancy at birth</t>
-  </si>
-  <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Life expectancy</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,22 +506,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>2001</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>2002</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>2003</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>2004</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>2005</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>2006</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>2007</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>2008</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>2009</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>2010</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>2011</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>2012</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>2013</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>2014</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>2015</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3756,18 +3756,18 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,13 +3798,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
